--- a/biology/Microbiologie/Gemmatimonadaceae/Gemmatimonadaceae.xlsx
+++ b/biology/Microbiologie/Gemmatimonadaceae/Gemmatimonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gemmatimonadaceae sont une famille de bactéries à Gram négatif de l'ordre des Gemmatimonadales. Son nom provient de Gemmatimonas qui est le genre type de cette famille.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est proposée dès 2003 pour recevoir l'espèce Gemmatimonas aurantiaca isolée d'un réacteur traitant des eaux usées[1]. Elle est validée la même année par une publication dans l'IJSEM[2]. En 2018 la famille s'agrandit avec l'adjonction du genre Roseisolibacter isolé par J. Pascual et al.[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est proposée dès 2003 pour recevoir l'espèce Gemmatimonas aurantiaca isolée d'un réacteur traitant des eaux usées. Elle est validée la même année par une publication dans l'IJSEM. En 2018 la famille s'agrandit avec l'adjonction du genre Roseisolibacter isolé par J. Pascual et al..
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (19 novembre 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (19 novembre 2022) :
 Gemmatimonas Zhang et al. 2003
 Roseisolibacter Pascual et al. 2018</t>
         </is>
